--- a/downloaded_files/SBES250_Tutorial-35956.xlsx
+++ b/downloaded_files/SBES250_Tutorial-35956.xlsx
@@ -521,11 +521,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : ----- Time : Thursday(15:17)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : ----- Time : Monday(15:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : ----- Time : Thursday(15:17)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : ----- Time : Monday(15:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : ----- Time : Thursday(15:17)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : ----- Time : Monday(15:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/SBES250_Tutorial-35956.xlsx
+++ b/downloaded_files/SBES250_Tutorial-35956.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,276 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4200368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد علي كمال عويس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ali Kamal Ewis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باسل أحمد حماد الشحات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bassel ahmed hammad el shahat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باسل بهاء السيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basel Bahaa Alsayed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جهاد خميس محمود مراد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gehad khamis Mahmoud Morad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه ممدوح محمد على سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Mamdoh Mohamed Ali Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه احمد هاشم حموده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza ahmaed hashem hamouda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد محمد خالد احمد زين الدين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Mohamed Khaled Ahmed Zain El/Dein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خديجة على على الفقى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khadiga ali ali elfeky</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد أحمد عبدالحميد ابراهيم النادى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Ahmed Abdelhamid Ibrahim Elnady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما محمد عيد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Mohamed Eid Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن أسامة حسين محمد حماد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Osama Hussien Mohamed Hammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد رفعت السيد حريشه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar ahmed mohamed refaat el sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر خالد سيف الله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omr Khaled Seif Allah Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام محروس مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam Mahrous Mabrouk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد حامد سيد أبو طالب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Hamed Sayed Abu-Taleb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر نبيل شحاتة محمد حبيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Nabil Shehata Mohamed Habib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid Mohamed Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>غادة طارق على البغدادى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ghada Tarek Ali  El-Boghdady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>غزل حسام الدين رضوان عصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ghazzl Hossameldin Radwan Asar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كارولين ايهاب صبحى فكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caroline Ehab Sobhy Fekry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد القاسم احمد الجميل احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed ElKassem Ahmed Elgamil Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد بسطاوي احمد بسطاوى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed bastawi ahmed bastawi Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد مصطفى احمد عبدالرازق على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Mostafa Ahmed abdelrazek Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود محمد عبدالفتاح السيد متولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Mohamed abd alfatah Alsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود محمد محمود نصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud mohammed mahmoud nasr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم محمد على سليمان عيطة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Mohamed Ali Soliman Aitah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منه الله نبيل عبد العظيم المتولى سيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mennat Allah Nabil Abdel Azim El/Metwally</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منه هشام رجب علام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menna Hesham Ragab Allam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ميار ايمن عبد السلام ابراهيم خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mayar ayman Abdelsalam  Ibrahim khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220086</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا محمود محمد الصادق محمد عبدالمتعال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Mahmoud Mohamed Elsadek Mohamed Abdelmotaal</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -107,21 +377,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -132,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -432,17 +716,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.380625000000002" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="52.460625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -510,11 +794,964 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
+      <x:c r="A2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="3">
+        <x:v>45927.4144872685</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="2" t="s"/>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:20">
+      <x:c r="A3" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="3">
+        <x:v>45927.4190157407</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
+      <x:c r="P3" s="2" t="s"/>
+      <x:c r="Q3" s="2" t="s"/>
+      <x:c r="R3" s="2" t="s"/>
+      <x:c r="S3" s="2" t="s"/>
+      <x:c r="T3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:20">
+      <x:c r="A4" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="3">
+        <x:v>45927.4320261921</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="L4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="2" t="s"/>
+      <x:c r="Q4" s="2" t="s"/>
+      <x:c r="R4" s="2" t="s"/>
+      <x:c r="S4" s="2" t="s"/>
+      <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45927.4149112616</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45927.4144476042</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45927.4143818634</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45927.4324908912</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45927.4173078356</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45927.4144831018</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45927.4227959838</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45927.4152085995</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45927.4242024306</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45927.4158435532</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45927.4152807523</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45927.4151804051</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45927.4153894676</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45927.4157047106</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45927.4244704861</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45927.4142580208</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45927.414465162</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45927.4276226505</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45927.4151599537</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45927.4146873032</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45927.4144404745</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45927.4274114583</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45927.4145367708</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45927.4147015857</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45927.4149412847</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45927.4166725347</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45927.4143403588</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES250_Tutorial-35956.xlsx
+++ b/downloaded_files/SBES250_Tutorial-35956.xlsx
@@ -1543,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4144404745</x:v>
+        <x:v>45927.769408831</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/SBES250_Tutorial-35956.xlsx
+++ b/downloaded_files/SBES250_Tutorial-35956.xlsx
@@ -60,15 +60,6 @@
     <x:t>Basel Bahaa Alsayed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جهاد خميس محمود مراد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gehad khamis Mahmoud Morad</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230192</x:t>
   </x:si>
   <x:si>
@@ -229,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammed bastawi ahmed bastawi Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد جميل اسماعيل اسماعيل العباسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Jameel Ismail Ismail AlAbasy</x:t>
   </x:si>
   <x:si>
     <x:t>4230197</x:t>
@@ -903,7 +903,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4149112616</x:v>
+        <x:v>45927.4144476042</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -935,7 +935,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4144476042</x:v>
+        <x:v>45927.4143818634</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4143818634</x:v>
+        <x:v>45927.4324908912</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4324908912</x:v>
+        <x:v>45927.4173078356</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4173078356</x:v>
+        <x:v>45927.4144831018</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4144831018</x:v>
+        <x:v>45927.4227959838</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4227959838</x:v>
+        <x:v>45927.4152085995</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4152085995</x:v>
+        <x:v>45927.4242024306</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4242024306</x:v>
+        <x:v>45927.4158435532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4158435532</x:v>
+        <x:v>45927.4152807523</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4152807523</x:v>
+        <x:v>45927.4151804051</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4151804051</x:v>
+        <x:v>45927.4153894676</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4153894676</x:v>
+        <x:v>45927.4157047106</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4157047106</x:v>
+        <x:v>45927.4244704861</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4244704861</x:v>
+        <x:v>45927.4142580208</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4142580208</x:v>
+        <x:v>45927.414465162</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.414465162</x:v>
+        <x:v>45927.4276226505</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4276226505</x:v>
+        <x:v>45927.4151599537</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4151599537</x:v>
+        <x:v>45928.5532515856</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>

--- a/downloaded_files/SBES250_Tutorial-35956.xlsx
+++ b/downloaded_files/SBES250_Tutorial-35956.xlsx
@@ -1758,11 +1758,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : ----- Time : Monday(15:17)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(15:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : ----- Time : Monday(15:17)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(15:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : ----- Time : Monday(15:17)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Operations Research in Healthcare (SBES250) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(15:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
